--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1208124.851095292</v>
+        <v>1206802.287283356</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.033948783</v>
+        <v>5866991.033948784</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783678.472736053</v>
+        <v>1783678.472736051</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>58.45918939116207</v>
+        <v>179.0208117604071</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>220.9263373332095</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>192.9312320650013</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>260.6122009875658</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>104.7029111552924</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1104,25 +1104,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>228.4760323695668</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>127.4094880701712</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>225.624553779541</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>90.8254736434903</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>181.8523372487124</v>
       </c>
       <c r="W10" t="n">
-        <v>35.53563203524823</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -1372,7 +1372,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -1384,10 +1384,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1423,7 +1423,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>183.5236380974013</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -1530,25 +1530,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>129.0564489160608</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>271.4342543713331</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1618,13 +1618,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -1660,7 +1660,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>194.3204012433882</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1852,10 +1852,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>187.6971066458113</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>193.7524915407167</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>35.1036280031059</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2061,7 +2061,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>189.7252009375847</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>182.1412945836353</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -2134,10 +2134,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>31.99018014062471</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>228.2601210751805</v>
+        <v>129.0564489160608</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2329,7 +2329,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>190.1198520010252</v>
       </c>
       <c r="G23" t="n">
         <v>404.4697473695408</v>
@@ -2338,7 +2338,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
-        <v>78.8859792091497</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>153.2224419313594</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2417,7 +2417,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I24" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -2487,16 +2487,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>81.94943918125415</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>51.2723504930938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>177.7694914447158</v>
+        <v>404.4697473695408</v>
       </c>
       <c r="H26" t="n">
         <v>306.0455584304623</v>
       </c>
       <c r="I26" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508507</v>
       </c>
       <c r="U26" t="n">
         <v>254.4761865113606</v>
@@ -2654,7 +2654,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I27" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>10.02087572662929</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>236.8250266956711</v>
@@ -2778,10 +2778,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.41224808872074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>179.4187119430218</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2806,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>177.7694914447158</v>
+        <v>404.4697473695408</v>
       </c>
       <c r="H29" t="n">
         <v>306.0455584304623</v>
       </c>
       <c r="I29" t="n">
-        <v>78.8859792091497</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I30" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>122.5364337160948</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T31" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>59.71010290084379</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>254.4761865113606</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>119.6389231920607</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3097,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>249.1130296057154</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I33" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>69.76512190206205</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>161.0546508376688</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.4697473695408</v>
+        <v>177.7694914447176</v>
       </c>
       <c r="H35" t="n">
-        <v>79.34530250563819</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I35" t="n">
-        <v>78.8859792091497</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I36" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794514</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>109.0825981496056</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>236.8250266956711</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.07183761697813565</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H38" t="n">
-        <v>158.2312817147879</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>170.2270503965671</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I39" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3669,13 +3669,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>236.8250266956711</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>197.245593806778</v>
       </c>
       <c r="Y40" t="n">
-        <v>74.74815778807891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I41" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>122.5603156417014</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>201.4462948508507</v>
       </c>
       <c r="U41" t="n">
         <v>254.4761865113606</v>
@@ -3839,7 +3839,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I42" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>142.7153906739565</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>109.6300007743295</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3982,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>173.719034683046</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3997,7 +3997,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T44" t="n">
-        <v>71.42047856476314</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U44" t="n">
         <v>254.4761865113606</v>
@@ -4076,7 +4076,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I45" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>66.07896560696142</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>236.8250266956711</v>
@@ -4200,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>182.0369120657532</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>619.3925391921655</v>
+        <v>741.1719557267563</v>
       </c>
       <c r="C2" t="n">
-        <v>613.3083525458396</v>
+        <v>331.0473650400264</v>
       </c>
       <c r="D2" t="n">
-        <v>612.8848266793042</v>
+        <v>330.623839173491</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8351404256051</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F2" t="n">
         <v>132.8047283792926</v>
@@ -4333,22 +4333,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N2" t="n">
-        <v>692.8507596625949</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1831.193789739612</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1831.193789739612</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>1831.193789739612</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>1430.550391908565</v>
+        <v>1552.329808443156</v>
       </c>
       <c r="Y2" t="n">
-        <v>1029.613718856655</v>
+        <v>1151.393135391246</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>558.6080202959275</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.008892784822</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="N3" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.76508562960205</v>
+        <v>963.8485448562819</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960205</v>
+        <v>792.7551724179984</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>633.2605277409085</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>472.349712609228</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>280.1089477699186</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X4" t="n">
-        <v>41.76508562960205</v>
+        <v>1376.283949861562</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.76508562960205</v>
+        <v>1151.548251250326</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80.25049765783463</v>
+        <v>1946.792430650117</v>
       </c>
       <c r="C5" t="n">
-        <v>74.16631101150881</v>
+        <v>1683.54778318793</v>
       </c>
       <c r="D5" t="n">
-        <v>73.74278514497341</v>
+        <v>1279.08385328099</v>
       </c>
       <c r="E5" t="n">
-        <v>63.44297370227418</v>
+        <v>864.7436377978871</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962253</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M5" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1380.929167557543</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>997.1688666927112</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X5" t="n">
-        <v>891.408350374234</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y5" t="n">
-        <v>490.4716773223241</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4649,25 +4649,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>751.4208778585605</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>751.4208778585605</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.3615225997325</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="C7" t="n">
-        <v>325.3615225997325</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="D7" t="n">
-        <v>325.3615225997325</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>325.3615225997325</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3615225997325</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
         <v>158.1111315252759</v>
@@ -4752,25 +4752,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U7" t="n">
-        <v>829.1668857020934</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V7" t="n">
-        <v>829.1668857020934</v>
+        <v>929.2073714114977</v>
       </c>
       <c r="W7" t="n">
-        <v>550.0972212109677</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="X7" t="n">
-        <v>550.0972212109677</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="Y7" t="n">
-        <v>325.3615225997325</v>
+        <v>800.5109188153651</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1202.163132231338</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C8" t="n">
-        <v>1196.078945585012</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D8" t="n">
-        <v>968.1753559087084</v>
+        <v>863.4445812219433</v>
       </c>
       <c r="E8" t="n">
-        <v>957.8755444660092</v>
+        <v>449.10436573884</v>
       </c>
       <c r="F8" t="n">
-        <v>536.8451324196967</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4807,22 +4807,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N8" t="n">
-        <v>1250.250340018485</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O8" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1608.987305686471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1208.343907855424</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y8" t="n">
-        <v>1208.343907855424</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147451</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>799.2174189668733</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C10" t="n">
-        <v>628.1240465285898</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D10" t="n">
-        <v>468.6294018514998</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4998,16 +4998,16 @@
         <v>1485.891263925851</v>
       </c>
       <c r="V10" t="n">
-        <v>1485.891263925851</v>
+        <v>1302.202034381698</v>
       </c>
       <c r="W10" t="n">
-        <v>1449.996686112469</v>
+        <v>1023.132369890572</v>
       </c>
       <c r="X10" t="n">
-        <v>1211.652823972153</v>
+        <v>784.7885077502552</v>
       </c>
       <c r="Y10" t="n">
-        <v>986.9171253609177</v>
+        <v>560.0528091390199</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C11" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
         <v>179.5954603735497</v>
@@ -5041,10 +5041,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5071,22 +5071,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4304.697325272099</v>
+        <v>4341.526397105643</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4084.465905365153</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>3734.628350701634</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3350.868049836802</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>2950.224652005755</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.287978953845</v>
       </c>
     </row>
     <row r="12">
@@ -5123,16 +5123,16 @@
         <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>741.8628115185547</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L12" t="n">
-        <v>1402.950983437843</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M12" t="n">
-        <v>1402.950983437843</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N12" t="n">
-        <v>1402.950983437843</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O12" t="n">
         <v>1578.027001052593</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5226,25 +5226,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1622.642594311473</v>
+        <v>1305.890776781221</v>
       </c>
       <c r="U13" t="n">
-        <v>1622.642594311473</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="V13" t="n">
-        <v>1622.642594311473</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W13" t="n">
-        <v>1622.642594311473</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.012952997039</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y13" t="n">
-        <v>1370.277254385804</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2238.282892603803</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C14" t="n">
-        <v>1828.158301917073</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D14" t="n">
-        <v>1423.694372010133</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E14" t="n">
-        <v>1009.35415652703</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F14" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
         <v>179.5954603735497</v>
@@ -5281,7 +5281,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5308,22 +5308,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4304.697325272099</v>
+        <v>4330.62057574606</v>
       </c>
       <c r="U14" t="n">
-        <v>4047.636833531609</v>
+        <v>4073.56008400557</v>
       </c>
       <c r="V14" t="n">
-        <v>3697.79927886809</v>
+        <v>3723.722529342051</v>
       </c>
       <c r="W14" t="n">
-        <v>3314.038978003258</v>
+        <v>3339.962228477219</v>
       </c>
       <c r="X14" t="n">
-        <v>2913.395580172211</v>
+        <v>2939.318830646172</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2538.382157594262</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>1210.13812587521</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>2053.115206569777</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N15" t="n">
-        <v>2053.115206569777</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O15" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2053.115206569777</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5460,25 +5460,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W16" t="n">
-        <v>275.6758118380055</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X16" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y16" t="n">
         <v>93.2436976906228</v>
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2324.444211508952</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C17" t="n">
-        <v>1914.319620822223</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D17" t="n">
-        <v>1509.855690915283</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
         <v>885.5886702674165</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4526.90380932524</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4269.84331758475</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V17" t="n">
-        <v>3920.005762921231</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W17" t="n">
-        <v>3536.245462056399</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X17" t="n">
-        <v>3135.602064225352</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2734.665391173442</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>286.056555253256</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>886.6708173828915</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
         <v>1760.328909494509</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>128.7019077947702</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="C19" t="n">
-        <v>128.7019077947702</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D19" t="n">
-        <v>128.7019077947702</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E19" t="n">
-        <v>128.7019077947702</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>554.7454763291312</v>
+        <v>908.6540907256278</v>
       </c>
       <c r="W19" t="n">
-        <v>554.7454763291312</v>
+        <v>908.6540907256278</v>
       </c>
       <c r="X19" t="n">
-        <v>316.4016141888146</v>
+        <v>670.3102285853113</v>
       </c>
       <c r="Y19" t="n">
-        <v>316.4016141888146</v>
+        <v>445.574529974076</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G20" t="n">
         <v>490.5039577458317</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5782,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4494.590496051882</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5937,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1392.076815447654</v>
+        <v>1305.890776781221</v>
       </c>
       <c r="U22" t="n">
-        <v>1109.278667993779</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="V22" t="n">
-        <v>835.3929229333004</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W22" t="n">
-        <v>556.3232584421747</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X22" t="n">
-        <v>317.9793963018581</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.2436976906228</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2544.754147592629</v>
+        <v>2315.763990092807</v>
       </c>
       <c r="C23" t="n">
-        <v>2134.629556905899</v>
+        <v>1905.639399406077</v>
       </c>
       <c r="D23" t="n">
-        <v>1730.16562699896</v>
+        <v>1501.175469499138</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.825411515857</v>
+        <v>1086.835254016034</v>
       </c>
       <c r="F23" t="n">
         <v>894.7949994695443</v>
@@ -5992,7 +5992,7 @@
         <v>365.9950463732503</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477949</v>
+        <v>925.7208439477957</v>
       </c>
       <c r="L23" t="n">
         <v>1665.067141547876</v>
@@ -6001,7 +6001,7 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N23" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O23" t="n">
         <v>3926.785084202961</v>
@@ -6028,13 +6028,13 @@
         <v>3911.325541505086</v>
       </c>
       <c r="W23" t="n">
-        <v>3756.555398140076</v>
+        <v>3527.565240640254</v>
       </c>
       <c r="X23" t="n">
-        <v>3355.912000309029</v>
+        <v>3126.921842809207</v>
       </c>
       <c r="Y23" t="n">
-        <v>2954.975327257119</v>
+        <v>2725.985169757297</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J24" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K24" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L24" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M24" t="n">
-        <v>963.3815547230743</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N24" t="n">
-        <v>1860.632488341521</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O24" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P24" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q24" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R24" t="n">
         <v>2137.637783597812</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1183.652854113933</v>
+        <v>671.6960076480138</v>
       </c>
       <c r="C25" t="n">
-        <v>1012.55948167565</v>
+        <v>500.6026352097304</v>
       </c>
       <c r="D25" t="n">
-        <v>853.0648369985595</v>
+        <v>341.1079905326404</v>
       </c>
       <c r="E25" t="n">
-        <v>692.1540218668789</v>
+        <v>180.1971754009598</v>
       </c>
       <c r="F25" t="n">
-        <v>527.5228959774702</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G25" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H25" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I25" t="n">
         <v>97.41996410676373</v>
@@ -6153,10 +6153,10 @@
         <v>280.267281314263</v>
       </c>
       <c r="L25" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M25" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N25" t="n">
         <v>1145.132879486175</v>
@@ -6177,22 +6177,22 @@
         <v>1702.21247802243</v>
       </c>
       <c r="T25" t="n">
-        <v>1702.21247802243</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U25" t="n">
-        <v>1702.21247802243</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="V25" t="n">
-        <v>1702.21247802243</v>
+        <v>1189.109534279456</v>
       </c>
       <c r="W25" t="n">
-        <v>1423.142813531304</v>
+        <v>910.0398697883304</v>
       </c>
       <c r="X25" t="n">
-        <v>1423.142813531304</v>
+        <v>671.6960076480138</v>
       </c>
       <c r="Y25" t="n">
-        <v>1371.352560507977</v>
+        <v>671.6960076480138</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2315.763990092806</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C26" t="n">
-        <v>1905.639399406076</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D26" t="n">
-        <v>1501.175469499137</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E26" t="n">
-        <v>1086.835254016034</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F26" t="n">
-        <v>665.8048419697211</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G26" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H26" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I26" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J26" t="n">
-        <v>365.9950463732499</v>
+        <v>365.9950463732494</v>
       </c>
       <c r="K26" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477945</v>
       </c>
       <c r="L26" t="n">
         <v>1665.067141547876</v>
@@ -6244,34 +6244,34 @@
         <v>3926.785084202961</v>
       </c>
       <c r="P26" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q26" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R26" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S26" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T26" t="n">
-        <v>4518.209749210382</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U26" t="n">
-        <v>4261.163096168604</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V26" t="n">
-        <v>3911.325541505085</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W26" t="n">
-        <v>3527.565240640253</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X26" t="n">
-        <v>3126.921842809206</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y26" t="n">
-        <v>2725.985169757296</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I27" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J27" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K27" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L27" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M27" t="n">
-        <v>661.3588250177029</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.609758636149</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O27" t="n">
-        <v>1558.609758636149</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P27" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q27" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R27" t="n">
         <v>2137.637783597812</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.41996410676371</v>
+        <v>439.5462483702927</v>
       </c>
       <c r="C28" t="n">
-        <v>97.41996410676371</v>
+        <v>268.4528759320092</v>
       </c>
       <c r="D28" t="n">
-        <v>97.41996410676371</v>
+        <v>268.4528759320092</v>
       </c>
       <c r="E28" t="n">
-        <v>97.41996410676371</v>
+        <v>107.5420608003287</v>
       </c>
       <c r="F28" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G28" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H28" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I28" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J28" t="n">
         <v>116.8792779475706</v>
@@ -6390,10 +6390,10 @@
         <v>280.267281314263</v>
       </c>
       <c r="L28" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M28" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N28" t="n">
         <v>1145.132879486175</v>
@@ -6408,28 +6408,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R28" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S28" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T28" t="n">
-        <v>1196.171987275931</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U28" t="n">
-        <v>913.3780722519373</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V28" t="n">
-        <v>639.4923271914593</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W28" t="n">
-        <v>360.4226627003336</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X28" t="n">
-        <v>122.078800560017</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.41996410676371</v>
+        <v>627.2459547643371</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2315.763990092806</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C29" t="n">
-        <v>1905.639399406076</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D29" t="n">
-        <v>1501.175469499137</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E29" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F29" t="n">
-        <v>665.8048419697211</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G29" t="n">
         <v>486.2396990962708</v>
@@ -6460,55 +6460,55 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I29" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J29" t="n">
-        <v>365.9950463732499</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L29" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M29" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O29" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P29" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q29" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344926</v>
       </c>
       <c r="R29" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="S29" t="n">
-        <v>4739.658996968401</v>
+        <v>4739.658996968403</v>
       </c>
       <c r="T29" t="n">
-        <v>4518.209749210382</v>
+        <v>4518.209749210384</v>
       </c>
       <c r="U29" t="n">
-        <v>4261.163096168604</v>
+        <v>4261.163096168606</v>
       </c>
       <c r="V29" t="n">
-        <v>3911.325541505085</v>
+        <v>3911.325541505087</v>
       </c>
       <c r="W29" t="n">
-        <v>3527.565240640253</v>
+        <v>3527.565240640255</v>
       </c>
       <c r="X29" t="n">
-        <v>3126.921842809206</v>
+        <v>3126.921842809208</v>
       </c>
       <c r="Y29" t="n">
-        <v>2725.985169757296</v>
+        <v>2725.985169757298</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I30" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676371</v>
+        <v>298.8031752824191</v>
       </c>
       <c r="K30" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L30" t="n">
-        <v>97.41996410676371</v>
+        <v>1450.041880175761</v>
       </c>
       <c r="M30" t="n">
-        <v>963.3815547230743</v>
+        <v>1450.041880175761</v>
       </c>
       <c r="N30" t="n">
-        <v>1860.632488341521</v>
+        <v>1450.041880175761</v>
       </c>
       <c r="O30" t="n">
-        <v>2137.637783597812</v>
+        <v>1450.041880175761</v>
       </c>
       <c r="P30" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q30" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R30" t="n">
         <v>2137.637783597812</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4021.850564314315</v>
+        <v>551.78215669294</v>
       </c>
       <c r="C31" t="n">
-        <v>4021.850564314315</v>
+        <v>380.6887842546565</v>
       </c>
       <c r="D31" t="n">
-        <v>4021.850564314315</v>
+        <v>221.1941395775665</v>
       </c>
       <c r="E31" t="n">
-        <v>3860.939749182634</v>
+        <v>221.1941395775665</v>
       </c>
       <c r="F31" t="n">
-        <v>3696.308623293226</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="G31" t="n">
-        <v>3529.135826766616</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="H31" t="n">
-        <v>3380.218257642933</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I31" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J31" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K31" t="n">
-        <v>3449.053008630018</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L31" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M31" t="n">
-        <v>4021.44203660462</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N31" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O31" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P31" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q31" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R31" t="n">
-        <v>4789.214420046788</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S31" t="n">
-        <v>4604.174913274182</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T31" t="n">
-        <v>4364.957714591686</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="U31" t="n">
-        <v>4082.163799567692</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="V31" t="n">
-        <v>4021.850564314315</v>
+        <v>1243.287226189345</v>
       </c>
       <c r="W31" t="n">
-        <v>4021.850564314315</v>
+        <v>964.2175616982197</v>
       </c>
       <c r="X31" t="n">
-        <v>4021.850564314315</v>
+        <v>964.2175616982197</v>
       </c>
       <c r="Y31" t="n">
-        <v>4021.850564314315</v>
+        <v>739.4818630869844</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2465.07134031066</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C32" t="n">
-        <v>2054.94674962393</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D32" t="n">
-        <v>1650.482819716991</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E32" t="n">
-        <v>1236.142604233887</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F32" t="n">
-        <v>815.1121921875749</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G32" t="n">
-        <v>406.5568918143014</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H32" t="n">
-        <v>97.41996410676371</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I32" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J32" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732512</v>
       </c>
       <c r="K32" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L32" t="n">
         <v>1665.067141547876</v>
@@ -6721,31 +6721,31 @@
         <v>4480.322041270214</v>
       </c>
       <c r="Q32" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R32" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S32" t="n">
-        <v>4739.658996968401</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="T32" t="n">
-        <v>4518.209749210382</v>
+        <v>4518.209749210383</v>
       </c>
       <c r="U32" t="n">
-        <v>4261.163096168604</v>
+        <v>4261.163096168605</v>
       </c>
       <c r="V32" t="n">
-        <v>3911.325541505085</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W32" t="n">
-        <v>3527.565240640253</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X32" t="n">
-        <v>3126.921842809206</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y32" t="n">
-        <v>2875.29251997515</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I33" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J33" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K33" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L33" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M33" t="n">
-        <v>963.3815547230743</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N33" t="n">
-        <v>1860.632488341521</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O33" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P33" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q33" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R33" t="n">
         <v>2137.637783597812</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3690.046641898296</v>
+        <v>498.4778013252302</v>
       </c>
       <c r="C34" t="n">
-        <v>3690.046641898296</v>
+        <v>327.3844288869467</v>
       </c>
       <c r="D34" t="n">
-        <v>3690.046641898296</v>
+        <v>167.8897842098567</v>
       </c>
       <c r="E34" t="n">
-        <v>3529.135826766616</v>
+        <v>167.8897842098567</v>
       </c>
       <c r="F34" t="n">
-        <v>3529.135826766616</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G34" t="n">
-        <v>3529.135826766616</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H34" t="n">
-        <v>3380.218257642933</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I34" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J34" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K34" t="n">
-        <v>3449.053008630018</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L34" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M34" t="n">
-        <v>4021.44203660462</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N34" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O34" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P34" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q34" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R34" t="n">
-        <v>4789.214420046788</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S34" t="n">
-        <v>4604.174913274182</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T34" t="n">
-        <v>4364.957714591686</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="U34" t="n">
-        <v>4202.276249099091</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="V34" t="n">
-        <v>3928.390504038613</v>
+        <v>1428.326732961952</v>
       </c>
       <c r="W34" t="n">
-        <v>3928.390504038613</v>
+        <v>1149.257068470826</v>
       </c>
       <c r="X34" t="n">
-        <v>3690.046641898296</v>
+        <v>910.9132063305099</v>
       </c>
       <c r="Y34" t="n">
-        <v>3690.046641898296</v>
+        <v>686.1775077192746</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2315.763990092807</v>
+        <v>2315.763990092808</v>
       </c>
       <c r="C35" t="n">
-        <v>1905.639399406077</v>
+        <v>1905.639399406078</v>
       </c>
       <c r="D35" t="n">
-        <v>1501.175469499138</v>
+        <v>1501.175469499139</v>
       </c>
       <c r="E35" t="n">
-        <v>1086.835254016034</v>
+        <v>1086.835254016035</v>
       </c>
       <c r="F35" t="n">
-        <v>665.804841969722</v>
+        <v>665.8048419697229</v>
       </c>
       <c r="G35" t="n">
-        <v>257.2495415964485</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H35" t="n">
         <v>177.1027713887331</v>
       </c>
       <c r="I35" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J35" t="n">
         <v>365.9950463732503</v>
       </c>
       <c r="K35" t="n">
-        <v>925.7208439477949</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L35" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M35" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N35" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O35" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P35" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q35" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344926</v>
       </c>
       <c r="R35" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338187</v>
       </c>
       <c r="S35" t="n">
-        <v>4739.658996968402</v>
+        <v>4739.658996968403</v>
       </c>
       <c r="T35" t="n">
-        <v>4518.209749210383</v>
+        <v>4518.209749210384</v>
       </c>
       <c r="U35" t="n">
-        <v>4261.163096168605</v>
+        <v>4261.163096168606</v>
       </c>
       <c r="V35" t="n">
-        <v>3911.325541505086</v>
+        <v>3911.325541505087</v>
       </c>
       <c r="W35" t="n">
-        <v>3527.565240640254</v>
+        <v>3527.565240640255</v>
       </c>
       <c r="X35" t="n">
-        <v>3126.921842809207</v>
+        <v>3126.921842809208</v>
       </c>
       <c r="Y35" t="n">
-        <v>2725.985169757297</v>
+        <v>2725.985169757298</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I36" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J36" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="K36" t="n">
-        <v>97.41996410676373</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L36" t="n">
-        <v>778.2043133443127</v>
+        <v>1248.658669000106</v>
       </c>
       <c r="M36" t="n">
-        <v>1644.165903960623</v>
+        <v>1248.658669000106</v>
       </c>
       <c r="N36" t="n">
-        <v>2137.637783597812</v>
+        <v>1248.658669000106</v>
       </c>
       <c r="O36" t="n">
-        <v>2137.637783597812</v>
+        <v>1248.658669000106</v>
       </c>
       <c r="P36" t="n">
-        <v>2137.637783597812</v>
+        <v>1827.686693961768</v>
       </c>
       <c r="Q36" t="n">
         <v>2137.637783597812</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>360.3500994508607</v>
+        <v>533.1463477032122</v>
       </c>
       <c r="C37" t="n">
-        <v>360.3500994508607</v>
+        <v>422.961905127853</v>
       </c>
       <c r="D37" t="n">
-        <v>360.3500994508607</v>
+        <v>422.961905127853</v>
       </c>
       <c r="E37" t="n">
-        <v>360.3500994508607</v>
+        <v>262.0510899961725</v>
       </c>
       <c r="F37" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="G37" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="H37" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="I37" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676374</v>
       </c>
       <c r="J37" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K37" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L37" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M37" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N37" t="n">
         <v>1145.132879486175</v>
@@ -7119,28 +7119,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R37" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S37" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T37" t="n">
-        <v>1196.171987275931</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U37" t="n">
-        <v>913.3780722519373</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="V37" t="n">
-        <v>639.4923271914593</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="W37" t="n">
-        <v>360.4226627003336</v>
+        <v>1183.925614848808</v>
       </c>
       <c r="X37" t="n">
-        <v>360.4226627003336</v>
+        <v>945.5817527084919</v>
       </c>
       <c r="Y37" t="n">
-        <v>360.3500994508607</v>
+        <v>720.8460540972566</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2315.763990092807</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C38" t="n">
-        <v>1905.639399406077</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D38" t="n">
-        <v>1501.175469499138</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E38" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F38" t="n">
-        <v>665.804841969722</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G38" t="n">
-        <v>257.2495415964485</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H38" t="n">
-        <v>97.41996410676373</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I38" t="n">
         <v>97.41996410676373</v>
       </c>
       <c r="J38" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K38" t="n">
-        <v>925.7208439477949</v>
+        <v>925.7208439477954</v>
       </c>
       <c r="L38" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M38" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N38" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O38" t="n">
         <v>3926.785084202961</v>
       </c>
       <c r="P38" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q38" t="n">
         <v>4819.791607344925</v>
@@ -7219,7 +7219,7 @@
         <v>3126.921842809207</v>
       </c>
       <c r="Y38" t="n">
-        <v>2725.985169757297</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>97.41996410676373</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676373</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L39" t="n">
-        <v>97.41996410676373</v>
+        <v>1248.658669000106</v>
       </c>
       <c r="M39" t="n">
-        <v>963.3815547230743</v>
+        <v>1248.658669000106</v>
       </c>
       <c r="N39" t="n">
-        <v>1860.632488341521</v>
+        <v>1248.658669000106</v>
       </c>
       <c r="O39" t="n">
-        <v>2137.637783597812</v>
+        <v>1974.19860028903</v>
       </c>
       <c r="P39" t="n">
         <v>2137.637783597812</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>920.7227187698359</v>
+        <v>428.0079812221372</v>
       </c>
       <c r="C40" t="n">
-        <v>749.6293463315524</v>
+        <v>256.9146087838537</v>
       </c>
       <c r="D40" t="n">
-        <v>590.1347016544623</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E40" t="n">
-        <v>429.2238865227819</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F40" t="n">
-        <v>264.5927606333731</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G40" t="n">
         <v>97.41996410676373</v>
@@ -7332,16 +7332,16 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J40" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K40" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L40" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M40" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N40" t="n">
         <v>1145.132879486175</v>
@@ -7365,19 +7365,19 @@
         <v>1462.995279339934</v>
       </c>
       <c r="U40" t="n">
-        <v>1462.995279339934</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V40" t="n">
-        <v>1462.995279339934</v>
+        <v>906.3156192554629</v>
       </c>
       <c r="W40" t="n">
-        <v>1183.925614848808</v>
+        <v>627.2459547643373</v>
       </c>
       <c r="X40" t="n">
-        <v>1183.925614848808</v>
+        <v>428.0079812221372</v>
       </c>
       <c r="Y40" t="n">
-        <v>1108.42242516388</v>
+        <v>428.0079812221372</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C41" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D41" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F41" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G41" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H41" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I41" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J41" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K41" t="n">
-        <v>925.7208439477953</v>
+        <v>925.7208439477954</v>
       </c>
       <c r="L41" t="n">
         <v>1665.067141547876</v>
@@ -7426,37 +7426,37 @@
         <v>3254.588416372258</v>
       </c>
       <c r="O41" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P41" t="n">
         <v>4480.322041270214</v>
       </c>
       <c r="Q41" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R41" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S41" t="n">
-        <v>4747.199906710204</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T41" t="n">
-        <v>4747.199906710204</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U41" t="n">
-        <v>4490.153253668426</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V41" t="n">
-        <v>4140.315699004907</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W41" t="n">
-        <v>3756.555398140076</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X41" t="n">
-        <v>3355.912000309029</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y41" t="n">
-        <v>2954.975327257119</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I42" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J42" t="n">
         <v>298.803175282419</v>
       </c>
       <c r="K42" t="n">
-        <v>298.803175282419</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L42" t="n">
-        <v>436.4543165702217</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M42" t="n">
-        <v>436.4543165702217</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N42" t="n">
-        <v>436.4543165702217</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O42" t="n">
         <v>1161.994247859146</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>542.0205474425508</v>
+        <v>653.9738272627202</v>
       </c>
       <c r="C43" t="n">
-        <v>370.9271750042673</v>
+        <v>653.9738272627202</v>
       </c>
       <c r="D43" t="n">
-        <v>211.4325303271773</v>
+        <v>543.2364527431954</v>
       </c>
       <c r="E43" t="n">
-        <v>211.4325303271773</v>
+        <v>543.2364527431954</v>
       </c>
       <c r="F43" t="n">
-        <v>211.4325303271773</v>
+        <v>378.6053268537867</v>
       </c>
       <c r="G43" t="n">
         <v>211.4325303271773</v>
@@ -7566,19 +7566,19 @@
         <v>211.4325303271773</v>
       </c>
       <c r="I43" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J43" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K43" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L43" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M43" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N43" t="n">
         <v>1145.132879486175</v>
@@ -7593,28 +7593,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R43" t="n">
-        <v>1702.21247802243</v>
+        <v>1620.428692731034</v>
       </c>
       <c r="S43" t="n">
-        <v>1702.21247802243</v>
+        <v>1435.389185958427</v>
       </c>
       <c r="T43" t="n">
-        <v>1702.21247802243</v>
+        <v>1435.389185958427</v>
       </c>
       <c r="U43" t="n">
-        <v>1702.21247802243</v>
+        <v>1152.595270934434</v>
       </c>
       <c r="V43" t="n">
-        <v>1428.326732961952</v>
+        <v>878.7095258739555</v>
       </c>
       <c r="W43" t="n">
-        <v>1149.257068470826</v>
+        <v>878.7095258739555</v>
       </c>
       <c r="X43" t="n">
-        <v>910.9132063305099</v>
+        <v>878.7095258739555</v>
       </c>
       <c r="Y43" t="n">
-        <v>686.1775077192746</v>
+        <v>653.9738272627202</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2465.07134031066</v>
+        <v>2315.763990092807</v>
       </c>
       <c r="C44" t="n">
-        <v>2054.94674962393</v>
+        <v>1905.639399406077</v>
       </c>
       <c r="D44" t="n">
-        <v>1650.482819716991</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E44" t="n">
-        <v>1236.142604233887</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F44" t="n">
-        <v>815.1121921875749</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G44" t="n">
-        <v>406.5568918143014</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H44" t="n">
-        <v>97.41996410676371</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I44" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J44" t="n">
         <v>365.9950463732501</v>
       </c>
       <c r="K44" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477954</v>
       </c>
       <c r="L44" t="n">
         <v>1665.067141547876</v>
@@ -7669,31 +7669,31 @@
         <v>4480.322041270214</v>
       </c>
       <c r="Q44" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R44" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S44" t="n">
-        <v>4739.658996968401</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="T44" t="n">
-        <v>4667.517099428236</v>
+        <v>4518.209749210383</v>
       </c>
       <c r="U44" t="n">
-        <v>4410.470446386458</v>
+        <v>4261.163096168605</v>
       </c>
       <c r="V44" t="n">
-        <v>4060.632891722939</v>
+        <v>3911.325541505086</v>
       </c>
       <c r="W44" t="n">
-        <v>3676.872590858107</v>
+        <v>3527.565240640254</v>
       </c>
       <c r="X44" t="n">
-        <v>3276.22919302706</v>
+        <v>3126.921842809207</v>
       </c>
       <c r="Y44" t="n">
-        <v>2875.29251997515</v>
+        <v>2725.985169757297</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I45" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J45" t="n">
         <v>298.803175282419</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>258.3307792384442</v>
+        <v>164.1663940127854</v>
       </c>
       <c r="C46" t="n">
-        <v>258.3307792384442</v>
+        <v>164.1663940127854</v>
       </c>
       <c r="D46" t="n">
-        <v>258.3307792384442</v>
+        <v>164.1663940127854</v>
       </c>
       <c r="E46" t="n">
-        <v>97.41996410676371</v>
+        <v>164.1663940127854</v>
       </c>
       <c r="F46" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G46" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H46" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I46" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J46" t="n">
-        <v>116.8792779475706</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K46" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L46" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M46" t="n">
-        <v>852.6563092888648</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N46" t="n">
         <v>1145.132879486175</v>
@@ -7833,25 +7833,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S46" t="n">
-        <v>1517.172971249823</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T46" t="n">
-        <v>1277.955772567327</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U46" t="n">
-        <v>995.161857543334</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V46" t="n">
-        <v>721.276112482856</v>
+        <v>906.3156192554629</v>
       </c>
       <c r="W46" t="n">
-        <v>442.2064479917303</v>
+        <v>627.2459547643373</v>
       </c>
       <c r="X46" t="n">
-        <v>258.3307792384442</v>
+        <v>388.9020926240207</v>
       </c>
       <c r="Y46" t="n">
-        <v>258.3307792384442</v>
+        <v>164.1663940127854</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>549.1401736751965</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
@@ -7990,16 +7990,16 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>228.5110173896169</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8057,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>528.676276151442</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>498.2302468367832</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>496.3946935832878</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>594.6194560602019</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
@@ -8309,7 +8309,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>532.6464328093264</v>
+        <v>564.4415429491204</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8318,7 +8318,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,25 +8455,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>269.4773261669552</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,19 +8531,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M9" t="n">
-        <v>98.1240166537967</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
@@ -8552,10 +8552,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8771,19 +8771,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>647.1462774881364</v>
       </c>
       <c r="O12" t="n">
-        <v>234.5959412371211</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>144.1852316072087</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,22 +9245,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
-        <v>664.2453565966351</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>36.21939520654517</v>
+        <v>36.21939520654512</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978723</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654933</v>
       </c>
       <c r="O24" t="n">
-        <v>315.753958306325</v>
+        <v>432.6543842302063</v>
       </c>
       <c r="P24" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>36.21939520654517</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M27" t="n">
-        <v>603.98282009114</v>
+        <v>34.34760704978723</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654933</v>
       </c>
       <c r="O27" t="n">
-        <v>35.95062976461625</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>36.21939520654517</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978723</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654933</v>
       </c>
       <c r="O30" t="n">
-        <v>315.753958306325</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P30" t="n">
-        <v>36.76253149458877</v>
+        <v>330.6821200249401</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>36.21939520654517</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978723</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654933</v>
       </c>
       <c r="O33" t="n">
-        <v>315.753958306325</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P33" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>42.71231595856359</v>
+        <v>42.71231595856357</v>
       </c>
       <c r="K36" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978723</v>
       </c>
       <c r="N36" t="n">
-        <v>527.8186844345181</v>
+        <v>29.36224035654933</v>
       </c>
       <c r="O36" t="n">
-        <v>35.95062976461625</v>
+        <v>35.9506297646162</v>
       </c>
       <c r="P36" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.99626817861591</v>
+        <v>358.0781769018926</v>
       </c>
       <c r="R36" t="n">
-        <v>53.3111688958806</v>
+        <v>53.31116889588058</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.71231595856359</v>
+        <v>42.71231595856355</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>36.21939520654517</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978717</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654928</v>
       </c>
       <c r="O39" t="n">
-        <v>315.753958306325</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>36.76253149458877</v>
+        <v>201.8526156448738</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.99626817861591</v>
+        <v>44.99626817861586</v>
       </c>
       <c r="R39" t="n">
-        <v>53.3111688958806</v>
+        <v>53.31116889588057</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,19 +11141,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>175.2609520629115</v>
+        <v>432.923149672135</v>
       </c>
       <c r="M42" t="n">
-        <v>34.34760704978728</v>
+        <v>34.34760704978717</v>
       </c>
       <c r="N42" t="n">
-        <v>29.36224035654939</v>
+        <v>29.36224035654928</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461614</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681332</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11381,16 +11381,16 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>432.9231496721353</v>
+        <v>432.923149672135</v>
       </c>
       <c r="M45" t="n">
-        <v>34.34760704978728</v>
+        <v>34.34760704978717</v>
       </c>
       <c r="N45" t="n">
-        <v>29.36224035654939</v>
+        <v>29.36224035654928</v>
       </c>
       <c r="O45" t="n">
-        <v>35.95062976461624</v>
+        <v>35.95062976461614</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>36.46078111520842</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>108.0968027170041</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>134.6847134965115</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>25.66401796922159</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="17">
@@ -23740,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>222.4997066824609</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>223.0676163851326</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>127.8811866274088</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>81.42168667228856</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>222.4997066824608</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>187.994239071985</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24177,16 +24177,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>8.893130557884461</v>
+        <v>108.0968027170041</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>226.7002559248241</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>226.7002559248237</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>81.0353754492605</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S25" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T25" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.2159911320291</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>226.7002559248251</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.88597920914968</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>17.7884604295883</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>152.9639389038853</v>
       </c>
       <c r="G28" t="n">
         <v>165.5010685613433</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>198.0760935364022</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>226.7002559248228</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>226.7002559248251</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>40.44838091441989</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V31" t="n">
-        <v>211.4367847090295</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>226.7002559248234</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>147.8142767156754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>93.2196927284526</v>
       </c>
       <c r="G34" t="n">
         <v>165.5010685613433</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U34" t="n">
-        <v>118.9113250360846</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>226.7002559248232</v>
       </c>
       <c r="H35" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>60.29984056429507</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5010685613433</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4165040081448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>147.8142767156745</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>226.7002559248238</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H40" t="n">
         <v>147.4283934324466</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S40" t="n">
         <v>183.1891117048806</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>38.71482971213541</v>
       </c>
       <c r="Y40" t="n">
-        <v>147.740183837044</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>7.465500644385017</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T41" t="n">
-        <v>219.234755280439</v>
+        <v>17.7884604295883</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.10731865614741</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>48.26969745598954</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>147.4283934324466</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>236.8250266956711</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>226.7002559248241</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>147.8142767156758</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>96.90584902355323</v>
       </c>
       <c r="G46" t="n">
         <v>165.5010685613433</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>53.92351145316022</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>725590.5434187221</v>
+        <v>725590.543418722</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>725590.543418722</v>
+        <v>725590.5434187221</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>725590.543418722</v>
+        <v>725590.5434187221</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>725590.5434187222</v>
+        <v>725590.5434187221</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>745695.7055391321</v>
+        <v>745695.705539132</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>745695.7055391319</v>
+        <v>745695.705539132</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>745695.7055391318</v>
+        <v>745695.7055391321</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>745695.7055391318</v>
+        <v>745695.7055391322</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>745695.705539132</v>
+        <v>745695.7055391321</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>745695.7055391319</v>
+        <v>745695.705539132</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>745695.7055391322</v>
+        <v>745695.7055391319</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>745695.7055391319</v>
+        <v>745695.7055391321</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423494.221884388</v>
+        <v>423494.2218843881</v>
       </c>
       <c r="C2" t="n">
         <v>423494.2218843882</v>
@@ -26322,10 +26322,10 @@
         <v>423494.2218843881</v>
       </c>
       <c r="E2" t="n">
-        <v>376543.267795622</v>
+        <v>376543.2677956218</v>
       </c>
       <c r="F2" t="n">
-        <v>376543.267795622</v>
+        <v>376543.2677956218</v>
       </c>
       <c r="G2" t="n">
         <v>376543.2677956221</v>
@@ -26337,25 +26337,25 @@
         <v>389000.1485648495</v>
       </c>
       <c r="J2" t="n">
+        <v>389000.1485648495</v>
+      </c>
+      <c r="K2" t="n">
+        <v>389000.1485648495</v>
+      </c>
+      <c r="L2" t="n">
         <v>389000.1485648496</v>
-      </c>
-      <c r="K2" t="n">
-        <v>389000.1485648494</v>
-      </c>
-      <c r="L2" t="n">
-        <v>389000.1485648493</v>
       </c>
       <c r="M2" t="n">
         <v>389000.1485648495</v>
       </c>
       <c r="N2" t="n">
-        <v>389000.1485648492</v>
+        <v>389000.1485648495</v>
       </c>
       <c r="O2" t="n">
+        <v>389000.1485648494</v>
+      </c>
+      <c r="P2" t="n">
         <v>389000.1485648493</v>
-      </c>
-      <c r="P2" t="n">
-        <v>389000.1485648495</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.62261588477</v>
+        <v>45948.62261588485</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>213059.5462795911</v>
       </c>
       <c r="E4" t="n">
-        <v>89101.60277166065</v>
+        <v>89101.60277166063</v>
       </c>
       <c r="F4" t="n">
         <v>89101.60277166063</v>
@@ -26438,22 +26438,22 @@
         <v>89101.60277166063</v>
       </c>
       <c r="I4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="J4" t="n">
         <v>88152.90891079398</v>
       </c>
       <c r="K4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="L4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="M4" t="n">
         <v>88152.90891079398</v>
       </c>
       <c r="N4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="O4" t="n">
         <v>88152.90891079398</v>
@@ -26493,25 +26493,25 @@
         <v>74967.83978868564</v>
       </c>
       <c r="J5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="K5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868565</v>
       </c>
       <c r="L5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="M5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868565</v>
       </c>
       <c r="N5" t="n">
         <v>74967.83978868564</v>
       </c>
       <c r="O5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="P5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868564</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29889.89936681464</v>
+        <v>-29889.89936681465</v>
       </c>
       <c r="C6" t="n">
         <v>145065.6105262995</v>
@@ -26530,40 +26530,40 @@
         <v>145065.6105262995</v>
       </c>
       <c r="E6" t="n">
-        <v>24446.69187964487</v>
+        <v>24266.11128699558</v>
       </c>
       <c r="F6" t="n">
-        <v>216576.454779088</v>
+        <v>216395.8741864388</v>
       </c>
       <c r="G6" t="n">
-        <v>216576.4547790881</v>
+        <v>216395.8741864391</v>
       </c>
       <c r="H6" t="n">
-        <v>216576.4547790879</v>
+        <v>216395.8741864389</v>
       </c>
       <c r="I6" t="n">
-        <v>179930.7772494851</v>
+        <v>179798.1077367175</v>
       </c>
       <c r="J6" t="n">
-        <v>89284.59905947512</v>
+        <v>89151.9295467074</v>
       </c>
       <c r="K6" t="n">
-        <v>225879.3998653698</v>
+        <v>225746.7303526024</v>
       </c>
       <c r="L6" t="n">
-        <v>225879.3998653697</v>
+        <v>225746.7303526025</v>
       </c>
       <c r="M6" t="n">
-        <v>65520.94936468714</v>
+        <v>65388.27985191961</v>
       </c>
       <c r="N6" t="n">
-        <v>225879.3998653696</v>
+        <v>225746.7303526025</v>
       </c>
       <c r="O6" t="n">
-        <v>225879.3998653697</v>
+        <v>225746.7303526023</v>
       </c>
       <c r="P6" t="n">
-        <v>225879.39986537</v>
+        <v>225746.7303526022</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812869</v>
+        <v>42.5994067681288</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812869</v>
+        <v>42.5994067681288</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812869</v>
+        <v>42.5994067681288</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812869</v>
+        <v>42.5994067681288</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812869</v>
+        <v>42.5994067681288</v>
       </c>
       <c r="N3" t="n">
-        <v>42.59940676812869</v>
+        <v>42.5994067681289</v>
       </c>
       <c r="O3" t="n">
-        <v>42.59940676812871</v>
+        <v>42.5994067681289</v>
       </c>
       <c r="P3" t="n">
-        <v>42.59940676812871</v>
+        <v>42.5994067681289</v>
       </c>
     </row>
     <row r="4">
@@ -26813,13 +26813,13 @@
         <v>1217.749551334547</v>
       </c>
       <c r="J4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="K4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="L4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="M4" t="n">
         <v>1217.749551334547</v>
@@ -26828,10 +26828,10 @@
         <v>1217.749551334547</v>
       </c>
       <c r="O4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="P4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812869</v>
+        <v>42.5994067681288</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.4826507627592</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>52.20333020176167</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700253</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627592</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>351.7376239371102</v>
+        <v>231.1760015678651</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>55.35263051300487</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>43.02919145391218</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>145.4111437922967</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>291.9340526974446</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27782,16 +27782,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>51.49413360977024</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>148.8694797760432</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>325.994634282359</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>174.7947368283291</v>
-      </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -27918,7 +27918,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -28028,10 +28028,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>89.29455036116087</v>
       </c>
       <c r="W10" t="n">
-        <v>240.7433358109661</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096875</v>
+        <v>1.75385396809688</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947867</v>
+        <v>6.602265846947883</v>
       </c>
       <c r="J23" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275969</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394513</v>
+        <v>21.78413784394518</v>
       </c>
       <c r="L23" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064919</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351428</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N23" t="n">
-        <v>30.557260897102</v>
+        <v>30.55726089710208</v>
       </c>
       <c r="O23" t="n">
-        <v>28.85435496323033</v>
+        <v>28.8543549632304</v>
       </c>
       <c r="P23" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202164</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163521</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R23" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S23" t="n">
-        <v>3.9024481677537</v>
+        <v>3.90244816775371</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7496639321707872</v>
+        <v>0.7496639321707891</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106928</v>
+        <v>0.0916289126710695</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284849</v>
+        <v>0.8849423934284871</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017086</v>
       </c>
       <c r="J24" t="n">
-        <v>8.656922841436419</v>
+        <v>8.65692284143644</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039806</v>
+        <v>14.7960599903981</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430393</v>
       </c>
       <c r="M24" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N24" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720066</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538375</v>
+        <v>21.8008492353838</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821502</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622284</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524812</v>
+        <v>5.689030209524826</v>
       </c>
       <c r="S24" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557572</v>
+        <v>0.369328819055758</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006028217938886139</v>
+        <v>0.006028217938886153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875665</v>
+        <v>0.07681860236875684</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513097</v>
+        <v>0.6829872101513114</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507707</v>
       </c>
       <c r="J25" t="n">
-        <v>5.431075187471095</v>
+        <v>5.431075187471109</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388271</v>
+        <v>8.924924893388294</v>
       </c>
       <c r="L25" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676795</v>
       </c>
       <c r="N25" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O25" t="n">
-        <v>10.85796026935845</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035802</v>
+        <v>9.290860781035825</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987433</v>
+        <v>6.432510421987449</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871548</v>
+        <v>3.454043702871557</v>
       </c>
       <c r="S25" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937783</v>
+        <v>0.3282249373937792</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004190105583750368</v>
+        <v>0.004190105583750378</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096875</v>
+        <v>1.75385396809688</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947867</v>
+        <v>6.602265846947883</v>
       </c>
       <c r="J26" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275969</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394513</v>
+        <v>21.78413784394518</v>
       </c>
       <c r="L26" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064919</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351428</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N26" t="n">
-        <v>30.557260897102</v>
+        <v>30.55726089710208</v>
       </c>
       <c r="O26" t="n">
-        <v>28.85435496323033</v>
+        <v>28.8543549632304</v>
       </c>
       <c r="P26" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202164</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163521</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R26" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S26" t="n">
-        <v>3.9024481677537</v>
+        <v>3.90244816775371</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7496639321707872</v>
+        <v>0.7496639321707891</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106928</v>
+        <v>0.0916289126710695</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284849</v>
+        <v>0.8849423934284871</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017086</v>
       </c>
       <c r="J27" t="n">
-        <v>8.656922841436419</v>
+        <v>8.65692284143644</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039806</v>
+        <v>14.7960599903981</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430393</v>
       </c>
       <c r="M27" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N27" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720066</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538375</v>
+        <v>21.8008492353838</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821502</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622284</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524812</v>
+        <v>5.689030209524826</v>
       </c>
       <c r="S27" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557572</v>
+        <v>0.369328819055758</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006028217938886139</v>
+        <v>0.006028217938886153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875665</v>
+        <v>0.07681860236875684</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513097</v>
+        <v>0.6829872101513114</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507707</v>
       </c>
       <c r="J28" t="n">
-        <v>5.431075187471095</v>
+        <v>5.431075187471109</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388271</v>
+        <v>8.924924893388294</v>
       </c>
       <c r="L28" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676795</v>
       </c>
       <c r="N28" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O28" t="n">
-        <v>10.85796026935845</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035802</v>
+        <v>9.290860781035825</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987433</v>
+        <v>6.432510421987449</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871548</v>
+        <v>3.454043702871557</v>
       </c>
       <c r="S28" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937783</v>
+        <v>0.3282249373937792</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004190105583750368</v>
+        <v>0.004190105583750378</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096875</v>
+        <v>1.75385396809688</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947867</v>
+        <v>6.602265846947883</v>
       </c>
       <c r="J29" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275969</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394513</v>
+        <v>21.78413784394518</v>
       </c>
       <c r="L29" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064919</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351428</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N29" t="n">
-        <v>30.557260897102</v>
+        <v>30.55726089710208</v>
       </c>
       <c r="O29" t="n">
-        <v>28.85435496323033</v>
+        <v>28.8543549632304</v>
       </c>
       <c r="P29" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202164</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163521</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R29" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S29" t="n">
-        <v>3.9024481677537</v>
+        <v>3.90244816775371</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7496639321707872</v>
+        <v>0.7496639321707891</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106928</v>
+        <v>0.0916289126710695</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284849</v>
+        <v>0.8849423934284871</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017086</v>
       </c>
       <c r="J30" t="n">
-        <v>8.656922841436419</v>
+        <v>8.65692284143644</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039806</v>
+        <v>14.7960599903981</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430393</v>
       </c>
       <c r="M30" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N30" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720066</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538375</v>
+        <v>21.8008492353838</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821502</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622284</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524812</v>
+        <v>5.689030209524826</v>
       </c>
       <c r="S30" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557572</v>
+        <v>0.369328819055758</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006028217938886139</v>
+        <v>0.006028217938886153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875665</v>
+        <v>0.07681860236875684</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513097</v>
+        <v>0.6829872101513114</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507707</v>
       </c>
       <c r="J31" t="n">
-        <v>5.431075187471095</v>
+        <v>5.431075187471109</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388271</v>
+        <v>8.924924893388294</v>
       </c>
       <c r="L31" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676795</v>
       </c>
       <c r="N31" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O31" t="n">
-        <v>10.85796026935845</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035802</v>
+        <v>9.290860781035825</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987433</v>
+        <v>6.432510421987449</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871548</v>
+        <v>3.454043702871557</v>
       </c>
       <c r="S31" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937783</v>
+        <v>0.3282249373937792</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004190105583750368</v>
+        <v>0.004190105583750378</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096875</v>
+        <v>1.75385396809688</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947867</v>
+        <v>6.602265846947883</v>
       </c>
       <c r="J32" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275969</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394513</v>
+        <v>21.78413784394518</v>
       </c>
       <c r="L32" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064919</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351428</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N32" t="n">
-        <v>30.557260897102</v>
+        <v>30.55726089710208</v>
       </c>
       <c r="O32" t="n">
-        <v>28.85435496323033</v>
+        <v>28.8543549632304</v>
       </c>
       <c r="P32" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202164</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163521</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R32" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S32" t="n">
-        <v>3.9024481677537</v>
+        <v>3.90244816775371</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7496639321707872</v>
+        <v>0.7496639321707891</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106928</v>
+        <v>0.0916289126710695</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284849</v>
+        <v>0.8849423934284871</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017086</v>
       </c>
       <c r="J33" t="n">
-        <v>8.656922841436419</v>
+        <v>8.65692284143644</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039806</v>
+        <v>14.7960599903981</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430393</v>
       </c>
       <c r="M33" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N33" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720066</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538375</v>
+        <v>21.8008492353838</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821502</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622284</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524812</v>
+        <v>5.689030209524826</v>
       </c>
       <c r="S33" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557572</v>
+        <v>0.369328819055758</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006028217938886139</v>
+        <v>0.006028217938886153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875665</v>
+        <v>0.07681860236875684</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513097</v>
+        <v>0.6829872101513114</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507707</v>
       </c>
       <c r="J34" t="n">
-        <v>5.431075187471095</v>
+        <v>5.431075187471109</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388271</v>
+        <v>8.924924893388294</v>
       </c>
       <c r="L34" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676795</v>
       </c>
       <c r="N34" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O34" t="n">
-        <v>10.85796026935845</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035802</v>
+        <v>9.290860781035825</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987433</v>
+        <v>6.432510421987449</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871548</v>
+        <v>3.454043702871557</v>
       </c>
       <c r="S34" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937783</v>
+        <v>0.3282249373937792</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004190105583750368</v>
+        <v>0.004190105583750378</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552915</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096875</v>
+        <v>1.75385396809688</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947867</v>
+        <v>6.602265846947883</v>
       </c>
       <c r="J35" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275969</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394513</v>
+        <v>21.78413784394518</v>
       </c>
       <c r="L35" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064919</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351428</v>
+        <v>30.07068576351435</v>
       </c>
       <c r="N35" t="n">
-        <v>30.557260897102</v>
+        <v>30.55726089710208</v>
       </c>
       <c r="O35" t="n">
-        <v>28.85435496323033</v>
+        <v>28.8543549632304</v>
       </c>
       <c r="P35" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202164</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163521</v>
+        <v>18.49349422163525</v>
       </c>
       <c r="R35" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949134</v>
       </c>
       <c r="S35" t="n">
-        <v>3.9024481677537</v>
+        <v>3.90244816775371</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7496639321707872</v>
+        <v>0.7496639321707891</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442332</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106928</v>
+        <v>0.0916289126710695</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284849</v>
+        <v>0.8849423934284871</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017086</v>
       </c>
       <c r="J36" t="n">
-        <v>8.656922841436419</v>
+        <v>8.65692284143644</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039806</v>
+        <v>14.7960599903981</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430393</v>
       </c>
       <c r="M36" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863019</v>
       </c>
       <c r="N36" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720066</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538375</v>
+        <v>21.8008492353838</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821502</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622284</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524812</v>
+        <v>5.689030209524826</v>
       </c>
       <c r="S36" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745522</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557572</v>
+        <v>0.369328819055758</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006028217938886139</v>
+        <v>0.006028217938886153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875665</v>
+        <v>0.07681860236875684</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513097</v>
+        <v>0.6829872101513114</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507707</v>
       </c>
       <c r="J37" t="n">
-        <v>5.431075187471095</v>
+        <v>5.431075187471109</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388271</v>
+        <v>8.924924893388294</v>
       </c>
       <c r="L37" t="n">
-        <v>11.42083111944224</v>
+        <v>11.42083111944227</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676795</v>
       </c>
       <c r="N37" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521168</v>
       </c>
       <c r="O37" t="n">
-        <v>10.85796026935845</v>
+        <v>10.85796026935847</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035802</v>
+        <v>9.290860781035825</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987433</v>
+        <v>6.432510421987449</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871548</v>
+        <v>3.454043702871557</v>
       </c>
       <c r="S37" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008244</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937783</v>
+        <v>0.3282249373937792</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004190105583750368</v>
+        <v>0.004190105583750378</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096875</v>
+        <v>1.753853968096884</v>
       </c>
       <c r="I38" t="n">
-        <v>6.602265846947867</v>
+        <v>6.602265846947899</v>
       </c>
       <c r="J38" t="n">
-        <v>14.53496040275965</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394513</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L38" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064926</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351428</v>
+        <v>30.07068576351443</v>
       </c>
       <c r="N38" t="n">
-        <v>30.557260897102</v>
+        <v>30.55726089710215</v>
       </c>
       <c r="O38" t="n">
-        <v>28.85435496323033</v>
+        <v>28.85435496323047</v>
       </c>
       <c r="P38" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.49349422163521</v>
+        <v>18.4934942216353</v>
       </c>
       <c r="R38" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949137</v>
       </c>
       <c r="S38" t="n">
-        <v>3.9024481677537</v>
+        <v>3.902448167753719</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707872</v>
+        <v>0.7496639321707909</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09162891267106928</v>
+        <v>0.09162891267106972</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8849423934284849</v>
+        <v>0.8849423934284892</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017094</v>
       </c>
       <c r="J39" t="n">
-        <v>8.656922841436419</v>
+        <v>8.65692284143646</v>
       </c>
       <c r="K39" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430388</v>
+        <v>19.89512860430398</v>
       </c>
       <c r="M39" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863025</v>
       </c>
       <c r="N39" t="n">
-        <v>23.8311530372006</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524812</v>
+        <v>5.689030209524839</v>
       </c>
       <c r="S39" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557572</v>
+        <v>0.3693288190557589</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006028217938886139</v>
+        <v>0.006028217938886168</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875665</v>
+        <v>0.07681860236875702</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6829872101513097</v>
+        <v>0.6829872101513129</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507712</v>
       </c>
       <c r="J40" t="n">
-        <v>5.431075187471095</v>
+        <v>5.431075187471121</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388271</v>
+        <v>8.924924893388315</v>
       </c>
       <c r="L40" t="n">
-        <v>11.42083111944224</v>
+        <v>11.4208311194423</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676798</v>
       </c>
       <c r="N40" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521171</v>
       </c>
       <c r="O40" t="n">
-        <v>10.85796026935845</v>
+        <v>10.8579602693585</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035802</v>
+        <v>9.290860781035846</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987433</v>
+        <v>6.432510421987464</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871548</v>
+        <v>3.454043702871565</v>
       </c>
       <c r="S40" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3282249373937783</v>
+        <v>0.3282249373937799</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004190105583750368</v>
+        <v>0.004190105583750388</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1712538965552912</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H41" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096884</v>
       </c>
       <c r="I41" t="n">
-        <v>6.602265846947869</v>
+        <v>6.602265846947899</v>
       </c>
       <c r="J41" t="n">
-        <v>14.53496040275966</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K41" t="n">
-        <v>21.78413784394514</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L41" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064926</v>
       </c>
       <c r="M41" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351443</v>
       </c>
       <c r="N41" t="n">
-        <v>30.55726089710202</v>
+        <v>30.55726089710215</v>
       </c>
       <c r="O41" t="n">
-        <v>28.85435496323034</v>
+        <v>28.85435496323047</v>
       </c>
       <c r="P41" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.49349422163521</v>
+        <v>18.4934942216353</v>
       </c>
       <c r="R41" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949137</v>
       </c>
       <c r="S41" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753719</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7496639321707874</v>
+        <v>0.7496639321707909</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0916289126710693</v>
+        <v>0.09162891267106972</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8849423934284852</v>
+        <v>0.8849423934284892</v>
       </c>
       <c r="I42" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017094</v>
       </c>
       <c r="J42" t="n">
-        <v>8.656922841436421</v>
+        <v>8.65692284143646</v>
       </c>
       <c r="K42" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L42" t="n">
-        <v>19.89512860430389</v>
+        <v>19.89512860430398</v>
       </c>
       <c r="M42" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863025</v>
       </c>
       <c r="N42" t="n">
-        <v>23.83115303720061</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O42" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P42" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R42" t="n">
-        <v>5.689030209524813</v>
+        <v>5.689030209524839</v>
       </c>
       <c r="S42" t="n">
-        <v>1.701966864745519</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3693288190557573</v>
+        <v>0.3693288190557589</v>
       </c>
       <c r="U42" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886168</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07681860236875668</v>
+        <v>0.07681860236875702</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6829872101513099</v>
+        <v>0.6829872101513129</v>
       </c>
       <c r="I43" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507712</v>
       </c>
       <c r="J43" t="n">
-        <v>5.431075187471097</v>
+        <v>5.431075187471121</v>
       </c>
       <c r="K43" t="n">
-        <v>8.924924893388274</v>
+        <v>8.924924893388315</v>
       </c>
       <c r="L43" t="n">
-        <v>11.42083111944224</v>
+        <v>11.4208311194423</v>
       </c>
       <c r="M43" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676798</v>
       </c>
       <c r="N43" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521171</v>
       </c>
       <c r="O43" t="n">
-        <v>10.85796026935845</v>
+        <v>10.8579602693585</v>
       </c>
       <c r="P43" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035846</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.432510421987435</v>
+        <v>6.432510421987464</v>
       </c>
       <c r="R43" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871565</v>
       </c>
       <c r="S43" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937799</v>
       </c>
       <c r="U43" t="n">
-        <v>0.00419010558375037</v>
+        <v>0.004190105583750388</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1712538965552912</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H44" t="n">
-        <v>1.753853968096876</v>
+        <v>1.753853968096884</v>
       </c>
       <c r="I44" t="n">
-        <v>6.602265846947869</v>
+        <v>6.602265846947899</v>
       </c>
       <c r="J44" t="n">
-        <v>14.53496040275966</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K44" t="n">
-        <v>21.78413784394514</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L44" t="n">
-        <v>27.02514928064913</v>
+        <v>27.02514928064926</v>
       </c>
       <c r="M44" t="n">
-        <v>30.07068576351429</v>
+        <v>30.07068576351443</v>
       </c>
       <c r="N44" t="n">
-        <v>30.55726089710202</v>
+        <v>30.55726089710215</v>
       </c>
       <c r="O44" t="n">
-        <v>28.85435496323034</v>
+        <v>28.85435496323047</v>
       </c>
       <c r="P44" t="n">
-        <v>24.62652439202158</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.49349422163521</v>
+        <v>18.4934942216353</v>
       </c>
       <c r="R44" t="n">
-        <v>10.75752757949132</v>
+        <v>10.75752757949137</v>
       </c>
       <c r="S44" t="n">
-        <v>3.902448167753701</v>
+        <v>3.902448167753719</v>
       </c>
       <c r="T44" t="n">
-        <v>0.7496639321707874</v>
+        <v>0.7496639321707909</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01370031172442329</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0916289126710693</v>
+        <v>0.09162891267106972</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8849423934284852</v>
+        <v>0.8849423934284892</v>
       </c>
       <c r="I45" t="n">
-        <v>3.154767388017079</v>
+        <v>3.154767388017094</v>
       </c>
       <c r="J45" t="n">
-        <v>8.656922841436421</v>
+        <v>8.65692284143646</v>
       </c>
       <c r="K45" t="n">
-        <v>14.79605999039806</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L45" t="n">
-        <v>19.89512860430389</v>
+        <v>19.89512860430398</v>
       </c>
       <c r="M45" t="n">
-        <v>23.21667668863014</v>
+        <v>23.21667668863025</v>
       </c>
       <c r="N45" t="n">
-        <v>23.83115303720061</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O45" t="n">
-        <v>21.80084923538375</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P45" t="n">
-        <v>17.49710350821498</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.69635032622281</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R45" t="n">
-        <v>5.689030209524813</v>
+        <v>5.689030209524839</v>
       </c>
       <c r="S45" t="n">
-        <v>1.701966864745519</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3693288190557573</v>
+        <v>0.3693288190557589</v>
       </c>
       <c r="U45" t="n">
-        <v>0.00602821793888614</v>
+        <v>0.006028217938886168</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.07681860236875668</v>
+        <v>0.07681860236875702</v>
       </c>
       <c r="H46" t="n">
-        <v>0.6829872101513099</v>
+        <v>0.6829872101513129</v>
       </c>
       <c r="I46" t="n">
-        <v>2.310144878507701</v>
+        <v>2.310144878507712</v>
       </c>
       <c r="J46" t="n">
-        <v>5.431075187471097</v>
+        <v>5.431075187471121</v>
       </c>
       <c r="K46" t="n">
-        <v>8.924924893388274</v>
+        <v>8.924924893388315</v>
       </c>
       <c r="L46" t="n">
-        <v>11.42083111944224</v>
+        <v>11.4208311194423</v>
       </c>
       <c r="M46" t="n">
-        <v>12.04166509676792</v>
+        <v>12.04166509676798</v>
       </c>
       <c r="N46" t="n">
-        <v>11.75534121521166</v>
+        <v>11.75534121521171</v>
       </c>
       <c r="O46" t="n">
-        <v>10.85796026935845</v>
+        <v>10.8579602693585</v>
       </c>
       <c r="P46" t="n">
-        <v>9.290860781035803</v>
+        <v>9.290860781035846</v>
       </c>
       <c r="Q46" t="n">
-        <v>6.432510421987435</v>
+        <v>6.432510421987464</v>
       </c>
       <c r="R46" t="n">
-        <v>3.454043702871549</v>
+        <v>3.454043702871565</v>
       </c>
       <c r="S46" t="n">
-        <v>1.338738734008241</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3282249373937784</v>
+        <v>0.3282249373937799</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00419010558375037</v>
+        <v>0.004190105583750388</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
@@ -34710,16 +34710,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
-        <v>471.1119924130246</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>500.9700927793177</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>474.8949538093264</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35038,7 +35038,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>500.9700927793178</v>
+      </c>
+      <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N8" t="n">
-        <v>176.5650354103359</v>
-      </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M9" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35272,10 +35272,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35491,19 +35491,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>593.9528840943865</v>
       </c>
       <c r="O12" t="n">
-        <v>176.8444622371211</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.49261310237</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
-        <v>606.6810728582177</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>565.3795935096416</v>
       </c>
       <c r="L23" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M23" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N23" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O23" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P23" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q23" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R23" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>279.8033285417088</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K25" t="n">
         <v>165.0383872390832</v>
@@ -36536,7 +36536,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>565.3795935096416</v>
       </c>
       <c r="L26" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M26" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N26" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O26" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P26" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q26" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M27" t="n">
-        <v>569.6352130413527</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>584.8767928905686</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K28" t="n">
         <v>165.0383872390832</v>
@@ -36773,7 +36773,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>565.3795935096416</v>
       </c>
       <c r="L29" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M29" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N29" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O29" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P29" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q29" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R29" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>687.6609588258073</v>
       </c>
       <c r="M30" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>293.9195885303514</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K31" t="n">
         <v>165.0383872390832</v>
@@ -37010,7 +37010,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>565.3795935096416</v>
       </c>
       <c r="L32" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M32" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N32" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O32" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P32" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q32" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M33" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K34" t="n">
         <v>165.0383872390832</v>
@@ -37247,7 +37247,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>565.3795935096416</v>
       </c>
       <c r="L35" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M35" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844779</v>
       </c>
       <c r="N35" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926758</v>
       </c>
       <c r="O35" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P35" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q35" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R35" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682954</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L36" t="n">
-        <v>687.6609588258071</v>
+        <v>687.6609588258073</v>
       </c>
       <c r="M36" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>498.4564440779687</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>313.0819087232767</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647164</v>
       </c>
       <c r="K37" t="n">
         <v>165.0383872390832</v>
@@ -37484,7 +37484,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K38" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L38" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M38" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N38" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O38" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P38" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q38" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R38" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682957</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>687.6609588258073</v>
       </c>
       <c r="M39" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>279.8033285417088</v>
+        <v>732.86861746356</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>165.0900841502851</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>19.65587256647162</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K40" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L40" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M40" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N40" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O40" t="n">
         <v>273.0403949425647</v>
@@ -37721,7 +37721,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K41" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L41" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M41" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N41" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O41" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P41" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q41" t="n">
-        <v>342.898551590617</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R41" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682961</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>203.4173850259145</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L42" t="n">
-        <v>139.0415568563664</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>584.8767928905686</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q42" t="n">
-        <v>365.0745974817615</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R42" t="n">
-        <v>35.54713057581764</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K43" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L43" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M43" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N43" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O43" t="n">
         <v>273.0403949425647</v>
@@ -37958,7 +37958,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K44" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096417</v>
       </c>
       <c r="L44" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202835</v>
       </c>
       <c r="M44" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N44" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O44" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623263</v>
       </c>
       <c r="P44" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618717</v>
       </c>
       <c r="Q44" t="n">
-        <v>342.8985515906164</v>
+        <v>342.8985515906171</v>
       </c>
       <c r="R44" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682961</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
-        <v>396.7037544655901</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>584.8767928905686</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q45" t="n">
-        <v>365.0745974817615</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R45" t="n">
-        <v>35.54713057581764</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>19.65587256647163</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K46" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L46" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M46" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N46" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O46" t="n">
         <v>273.0403949425647</v>
@@ -38195,7 +38195,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543275</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
